--- a/stock_historical_data/1wk/NESTLEIND.NS.xlsx
+++ b/stock_historical_data/1wk/NESTLEIND.NS.xlsx
@@ -64253,7 +64253,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NESTLEIND.NS.xlsx
+++ b/stock_historical_data/1wk/NESTLEIND.NS.xlsx
@@ -60887,7 +60887,9 @@
       <c r="P1140" t="n">
         <v>0</v>
       </c>
-      <c r="Q1140" t="inlineStr"/>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NESTLEIND.NS.xlsx
+++ b/stock_historical_data/1wk/NESTLEIND.NS.xlsx
@@ -22254,7 +22254,7 @@
         <v>2</v>
       </c>
       <c r="R389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -22310,7 +22310,7 @@
         <v>2</v>
       </c>
       <c r="R390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -22366,7 +22366,7 @@
         <v>2</v>
       </c>
       <c r="R391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -22422,7 +22422,7 @@
         <v>2</v>
       </c>
       <c r="R392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -22590,7 +22590,7 @@
         <v>1</v>
       </c>
       <c r="R395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -24046,7 +24046,7 @@
         <v>2</v>
       </c>
       <c r="R421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -24326,7 +24326,7 @@
         <v>1</v>
       </c>
       <c r="R426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -24830,7 +24830,7 @@
         <v>1</v>
       </c>
       <c r="R435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -24998,7 +24998,7 @@
         <v>2</v>
       </c>
       <c r="R438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -25446,7 +25446,7 @@
         <v>2</v>
       </c>
       <c r="R446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="R451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -25950,7 +25950,7 @@
         <v>2</v>
       </c>
       <c r="R455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -26790,7 +26790,7 @@
         <v>1</v>
       </c>
       <c r="R470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -27014,7 +27014,7 @@
         <v>2</v>
       </c>
       <c r="R474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -27182,7 +27182,7 @@
         <v>1</v>
       </c>
       <c r="R477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -29198,7 +29198,7 @@
         <v>2</v>
       </c>
       <c r="R513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -29366,7 +29366,7 @@
         <v>1</v>
       </c>
       <c r="R516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -29814,7 +29814,7 @@
         <v>2</v>
       </c>
       <c r="R524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -30038,7 +30038,7 @@
         <v>1</v>
       </c>
       <c r="R528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -30262,7 +30262,7 @@
         <v>2</v>
       </c>
       <c r="R532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -30486,7 +30486,7 @@
         <v>1</v>
       </c>
       <c r="R536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -30598,7 +30598,7 @@
         <v>2</v>
       </c>
       <c r="R538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -30934,7 +30934,7 @@
         <v>1</v>
       </c>
       <c r="R544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -30990,7 +30990,7 @@
         <v>2</v>
       </c>
       <c r="R545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -31438,7 +31438,7 @@
         <v>1</v>
       </c>
       <c r="R553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -32390,7 +32390,7 @@
         <v>2</v>
       </c>
       <c r="R570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -32838,7 +32838,7 @@
         <v>2</v>
       </c>
       <c r="R578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579">
@@ -33174,7 +33174,7 @@
         <v>1</v>
       </c>
       <c r="R584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -34014,7 +34014,7 @@
         <v>1</v>
       </c>
       <c r="R599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -34686,7 +34686,7 @@
         <v>1</v>
       </c>
       <c r="R611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -34910,7 +34910,7 @@
         <v>2</v>
       </c>
       <c r="R615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616">
@@ -35302,7 +35302,7 @@
         <v>1</v>
       </c>
       <c r="R622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -36478,7 +36478,7 @@
         <v>1</v>
       </c>
       <c r="R643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -36702,7 +36702,7 @@
         <v>2</v>
       </c>
       <c r="R647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648">
@@ -36982,7 +36982,7 @@
         <v>1</v>
       </c>
       <c r="R652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -37318,7 +37318,7 @@
         <v>2</v>
       </c>
       <c r="R658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -38830,7 +38830,7 @@
         <v>2</v>
       </c>
       <c r="R685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686">
@@ -39054,7 +39054,7 @@
         <v>1</v>
       </c>
       <c r="R689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -39390,7 +39390,7 @@
         <v>2</v>
       </c>
       <c r="R695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696">
@@ -40510,7 +40510,7 @@
         <v>1</v>
       </c>
       <c r="R715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -41070,7 +41070,7 @@
         <v>1</v>
       </c>
       <c r="R725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -42078,7 +42078,7 @@
         <v>1</v>
       </c>
       <c r="R743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -42414,7 +42414,7 @@
         <v>2</v>
       </c>
       <c r="R749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750">
@@ -42526,7 +42526,7 @@
         <v>1</v>
       </c>
       <c r="R751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -42862,7 +42862,7 @@
         <v>1</v>
       </c>
       <c r="R757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -44710,7 +44710,7 @@
         <v>1</v>
       </c>
       <c r="R790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -46166,7 +46166,7 @@
         <v>1</v>
       </c>
       <c r="R816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -47790,7 +47790,7 @@
         <v>2</v>
       </c>
       <c r="R845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -48126,7 +48126,7 @@
         <v>1</v>
       </c>
       <c r="R851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -49358,7 +49358,7 @@
         <v>1</v>
       </c>
       <c r="R873" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874">
@@ -51206,7 +51206,7 @@
         <v>2</v>
       </c>
       <c r="R906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907">
@@ -52382,7 +52382,7 @@
         <v>1</v>
       </c>
       <c r="R927" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928">
@@ -52550,7 +52550,7 @@
         <v>2</v>
       </c>
       <c r="R930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -53054,7 +53054,7 @@
         <v>1</v>
       </c>
       <c r="R939" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -53278,7 +53278,7 @@
         <v>2</v>
       </c>
       <c r="R943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944">
@@ -53838,7 +53838,7 @@
         <v>1</v>
       </c>
       <c r="R953" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954">
@@ -54622,7 +54622,7 @@
         <v>2</v>
       </c>
       <c r="R967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968">
@@ -55070,7 +55070,7 @@
         <v>1</v>
       </c>
       <c r="R975" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976">
@@ -55406,7 +55406,7 @@
         <v>2</v>
       </c>
       <c r="R981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -56694,7 +56694,7 @@
         <v>2</v>
       </c>
       <c r="R1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005">
@@ -57086,7 +57086,7 @@
         <v>1</v>
       </c>
       <c r="R1011" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -57590,7 +57590,7 @@
         <v>2</v>
       </c>
       <c r="R1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021">
@@ -58262,7 +58262,7 @@
         <v>1</v>
       </c>
       <c r="R1032" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033">
@@ -58430,7 +58430,7 @@
         <v>2</v>
       </c>
       <c r="R1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036">
@@ -58654,7 +58654,7 @@
         <v>1</v>
       </c>
       <c r="R1039" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
@@ -59662,7 +59662,7 @@
         <v>1</v>
       </c>
       <c r="R1057" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -59942,7 +59942,7 @@
         <v>2</v>
       </c>
       <c r="R1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -61062,7 +61062,7 @@
         <v>1</v>
       </c>
       <c r="R1082" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083">
@@ -62070,7 +62070,7 @@
         <v>2</v>
       </c>
       <c r="R1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101">
@@ -62294,7 +62294,7 @@
         <v>1</v>
       </c>
       <c r="R1104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -63414,7 +63414,7 @@
         <v>2</v>
       </c>
       <c r="R1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -63694,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="R1129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -63974,7 +63974,7 @@
         <v>2</v>
       </c>
       <c r="R1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -64365,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NESTLEIND.NS.xlsx
+++ b/stock_historical_data/1wk/NESTLEIND.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1141"/>
+  <dimension ref="A1:R1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22254,7 +22254,7 @@
         <v>2</v>
       </c>
       <c r="R389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -22310,7 +22310,7 @@
         <v>2</v>
       </c>
       <c r="R390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -22366,7 +22366,7 @@
         <v>2</v>
       </c>
       <c r="R391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -22422,7 +22422,7 @@
         <v>2</v>
       </c>
       <c r="R392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -22590,7 +22590,7 @@
         <v>1</v>
       </c>
       <c r="R395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -24046,7 +24046,7 @@
         <v>2</v>
       </c>
       <c r="R421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -24326,7 +24326,7 @@
         <v>1</v>
       </c>
       <c r="R426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -24830,7 +24830,7 @@
         <v>1</v>
       </c>
       <c r="R435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -24998,7 +24998,7 @@
         <v>2</v>
       </c>
       <c r="R438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -25446,7 +25446,7 @@
         <v>2</v>
       </c>
       <c r="R446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="R451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -25950,7 +25950,7 @@
         <v>2</v>
       </c>
       <c r="R455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -26790,7 +26790,7 @@
         <v>1</v>
       </c>
       <c r="R470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -27014,7 +27014,7 @@
         <v>2</v>
       </c>
       <c r="R474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -27182,7 +27182,7 @@
         <v>1</v>
       </c>
       <c r="R477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -29198,7 +29198,7 @@
         <v>2</v>
       </c>
       <c r="R513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -29366,7 +29366,7 @@
         <v>1</v>
       </c>
       <c r="R516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -29814,7 +29814,7 @@
         <v>2</v>
       </c>
       <c r="R524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -30038,7 +30038,7 @@
         <v>1</v>
       </c>
       <c r="R528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -30262,7 +30262,7 @@
         <v>2</v>
       </c>
       <c r="R532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -30486,7 +30486,7 @@
         <v>1</v>
       </c>
       <c r="R536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -30598,7 +30598,7 @@
         <v>2</v>
       </c>
       <c r="R538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -30934,7 +30934,7 @@
         <v>1</v>
       </c>
       <c r="R544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -30990,7 +30990,7 @@
         <v>2</v>
       </c>
       <c r="R545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -31438,7 +31438,7 @@
         <v>1</v>
       </c>
       <c r="R553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -32390,7 +32390,7 @@
         <v>2</v>
       </c>
       <c r="R570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -32838,7 +32838,7 @@
         <v>2</v>
       </c>
       <c r="R578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -33174,7 +33174,7 @@
         <v>1</v>
       </c>
       <c r="R584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -34014,7 +34014,7 @@
         <v>1</v>
       </c>
       <c r="R599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -34686,7 +34686,7 @@
         <v>1</v>
       </c>
       <c r="R611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -34910,7 +34910,7 @@
         <v>2</v>
       </c>
       <c r="R615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -35302,7 +35302,7 @@
         <v>1</v>
       </c>
       <c r="R622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -36478,7 +36478,7 @@
         <v>1</v>
       </c>
       <c r="R643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -36702,7 +36702,7 @@
         <v>2</v>
       </c>
       <c r="R647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -36982,7 +36982,7 @@
         <v>1</v>
       </c>
       <c r="R652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -37318,7 +37318,7 @@
         <v>2</v>
       </c>
       <c r="R658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -38830,7 +38830,7 @@
         <v>2</v>
       </c>
       <c r="R685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -39054,7 +39054,7 @@
         <v>1</v>
       </c>
       <c r="R689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -39390,7 +39390,7 @@
         <v>2</v>
       </c>
       <c r="R695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -40510,7 +40510,7 @@
         <v>1</v>
       </c>
       <c r="R715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -41070,7 +41070,7 @@
         <v>1</v>
       </c>
       <c r="R725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -42078,7 +42078,7 @@
         <v>1</v>
       </c>
       <c r="R743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -42414,7 +42414,7 @@
         <v>2</v>
       </c>
       <c r="R749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750">
@@ -42526,7 +42526,7 @@
         <v>1</v>
       </c>
       <c r="R751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
@@ -42862,7 +42862,7 @@
         <v>1</v>
       </c>
       <c r="R757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -44710,7 +44710,7 @@
         <v>1</v>
       </c>
       <c r="R790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -46166,7 +46166,7 @@
         <v>1</v>
       </c>
       <c r="R816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -47790,7 +47790,7 @@
         <v>2</v>
       </c>
       <c r="R845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -48126,7 +48126,7 @@
         <v>1</v>
       </c>
       <c r="R851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852">
@@ -49358,7 +49358,7 @@
         <v>1</v>
       </c>
       <c r="R873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874">
@@ -51206,7 +51206,7 @@
         <v>2</v>
       </c>
       <c r="R906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -52382,7 +52382,7 @@
         <v>1</v>
       </c>
       <c r="R927" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -52550,7 +52550,7 @@
         <v>2</v>
       </c>
       <c r="R930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931">
@@ -53054,7 +53054,7 @@
         <v>1</v>
       </c>
       <c r="R939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940">
@@ -53278,7 +53278,7 @@
         <v>2</v>
       </c>
       <c r="R943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944">
@@ -53838,7 +53838,7 @@
         <v>1</v>
       </c>
       <c r="R953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
@@ -54622,7 +54622,7 @@
         <v>2</v>
       </c>
       <c r="R967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -55070,7 +55070,7 @@
         <v>1</v>
       </c>
       <c r="R975" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976">
@@ -55406,7 +55406,7 @@
         <v>2</v>
       </c>
       <c r="R981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982">
@@ -56694,7 +56694,7 @@
         <v>2</v>
       </c>
       <c r="R1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005">
@@ -57086,7 +57086,7 @@
         <v>1</v>
       </c>
       <c r="R1011" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012">
@@ -57590,7 +57590,7 @@
         <v>2</v>
       </c>
       <c r="R1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021">
@@ -58262,7 +58262,7 @@
         <v>1</v>
       </c>
       <c r="R1032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033">
@@ -58430,7 +58430,7 @@
         <v>2</v>
       </c>
       <c r="R1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036">
@@ -58654,7 +58654,7 @@
         <v>1</v>
       </c>
       <c r="R1039" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040">
@@ -59662,7 +59662,7 @@
         <v>1</v>
       </c>
       <c r="R1057" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058">
@@ -59942,7 +59942,7 @@
         <v>2</v>
       </c>
       <c r="R1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063">
@@ -61062,7 +61062,7 @@
         <v>1</v>
       </c>
       <c r="R1082" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083">
@@ -62070,7 +62070,7 @@
         <v>2</v>
       </c>
       <c r="R1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101">
@@ -62294,7 +62294,7 @@
         <v>1</v>
       </c>
       <c r="R1104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105">
@@ -62798,7 +62798,7 @@
         <v>2</v>
       </c>
       <c r="R1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114">
@@ -63414,7 +63414,7 @@
         <v>2</v>
       </c>
       <c r="R1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125">
@@ -63694,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="R1129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -63974,7 +63974,7 @@
         <v>2</v>
       </c>
       <c r="R1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135">
@@ -64368,6 +64368,114 @@
       <c r="R1141" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>2542.5</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>2559.60009765625</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>2488.5</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>2498.39990234375</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>2498.39990234375</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>2972818</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>2498.39990234375</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>2573.699951171875</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>2484.5</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>2551.64990234375</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>2551.64990234375</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>3564429</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NESTLEIND.NS.xlsx
+++ b/stock_historical_data/1wk/NESTLEIND.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64301,7 +64301,7 @@
         <v>23</v>
       </c>
       <c r="O1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1140" t="n">
         <v>0</v>
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,387 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>2559.800048828125</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>2591.10009765625</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>2532.5</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>2574.14990234375</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>2563.033447265625</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>2926759</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>2574.14990234375</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>2649.949951171875</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>2561.449951171875</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>2609</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>2597.733154296875</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>3871531</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>2609.050048828125</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>2645.5</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>2569.050048828125</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>2597.85009765625</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>2586.63134765625</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>2510763</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>2597.85009765625</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>2630</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>2451.5</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>2476.89990234375</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>2476.89990234375</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>8113588</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>2483.60009765625</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>2514</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>2451</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>2495.10009765625</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>2495.10009765625</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>5822256</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>2528.949951171875</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>2475.050048828125</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>2504.699951171875</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>2504.699951171875</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>4620323</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>2501.800048828125</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>2533.449951171875</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>2460.60009765625</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>2525.449951171875</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>2525.449951171875</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>2208522</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NESTLEIND.NS.xlsx
+++ b/stock_historical_data/1wk/NESTLEIND.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1150"/>
+  <dimension ref="A1:R1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64533,7 +64533,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64587,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64641,7 +64645,9 @@
       <c r="Q1146" t="n">
         <v>1</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64695,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64741,7 +64749,7 @@
         <v>31</v>
       </c>
       <c r="O1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1148" t="n">
         <v>0</v>
@@ -64749,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64803,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64857,7 +64869,1673 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>2513.901159146736</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>2548.728178268148</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>2483.148148029537</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>2513.106201171875</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>2733648</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>2513.106322774312</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>2528.805833835786</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>2474.155805992577</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>2484.83740234375</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>4393906</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>2484.092139095008</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>2542.71671357765</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>2472.218227187559</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>2487.271728515625</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>4322057</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>2479.272900354194</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>2545.300263402311</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>2472.168493879703</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>2515.292236328125</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>5373171</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>2513.901143826685</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>2687.042358969689</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>2484.092039354432</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>2682.372314453125</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>7123660</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>2687.936735367412</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>2760.323279823111</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>2642.130220300595</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>2728.228759765625</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>5587010</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>2702.692176355208</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>2722.564912946055</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>2573.817528080987</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>2581.617431640625</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>3281350</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>2588.374316080805</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>2603.32859949226</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>2453.239701756016</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>2495.817138671875</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>6330089</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>2503.666631473403</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>2503.666631473403</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>2311.298689854093</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>2335.294921875</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>6969120</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>2344.982881429642</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>2369.82380178377</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>2201.899180189867</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>2246.314697265625</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>6720102</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>2256.499468902909</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>2304.243766220193</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>2241.694377444144</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>2267.77734375</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>3480548</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>2268.472827768893</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>2283.37737985673</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>2216.704253148959</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>2281.042236328125</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>4223015</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>2265.492101388821</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>2280.247706189298</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>2164.538496678046</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>2168.91064453125</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>3801560</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>2176.760298811253</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>2238.514977428981</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>2154.90028710667</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>2233.000244140625</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>3097527</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>2244.178485441595</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>2274.931496463613</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>2212.829195293499</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>2220.430419921875</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>5379823</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>2228.528708406329</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>2277.365861074328</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>2206.867377212975</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>2253.36962890625</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>4036758</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>2255.555652578628</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>2262.113752832428</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>2194.198577007381</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>2239.16064453125</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>4140281</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>2239.160717993486</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>2243.135265529307</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>2131.748473803055</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>2149.7333984375</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>6336510</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>2156.19197348274</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>2166.128342024135</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>2132.742046690198</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>2151.820068359375</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>1747876</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>2160.166486042476</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>2223.709513321931</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>2134.083519042193</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>2218.492919921875</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>3965951</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>2229.224286275015</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>2263.504757804539</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>2156.191977364289</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>2233.59619140625</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>4140957</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>2230.714705398831</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>2246.761843327097</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>2142.777845074645</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>2203.091552734375</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>4012415</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>2205.078730255269</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>2225.746424139702</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>2151.223664402882</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>2193.8505859375</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>2773165</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>2168.165311518841</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>2371.81113300996</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>2117.688511616036</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>2312.3916015625</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>6629176</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>2312.391580984849</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>2358.893833120657</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>2193.503031375682</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>2210.94140625</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>5639198</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>2235</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>2252.5</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>2170.050048828125</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>2195.85009765625</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>3212284</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>2195.85009765625</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>2229.5</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>2170</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>2214.949951171875</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>2933765</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>2199</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>2281.800048828125</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>2185</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>2189.64990234375</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>3721445</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>2188.25</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>2246</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>2110</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>2238.449951171875</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>4194028</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>2239.199951171875</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>2274</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>2155.10009765625</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>2191.949951171875</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>1635894</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>2175.550048828125</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>2275</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>2156</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>2268.85009765625</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>2102059</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>2273.10009765625</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>2288.60009765625</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>2225.25</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>2250.75</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>3288299</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
